--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB123.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB123.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB123.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB123.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,523 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Awad</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Samir</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14-07-2005</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Malik</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ahsan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25.09.1994</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Faisalabad</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gronau</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nakshbandi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10-05-1995</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Damaskus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fatou</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jadama</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16-10-1986</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jeshwang</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Doçaj</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aldona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14-07-1998</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bajram Curri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vellmar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nashif Nasirat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zahra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22-03-1995</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kefar Sava</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Wetter (Ruhr)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kawas</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fatoom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01-01-2000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Idlib</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bad Lippspringe</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Acquah</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14-07-1983</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kumasi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chaudhry</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muddassar Hussain Warraich</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>06-10-1979</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gujrat, Pakistan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ghazaal</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Batol</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22-06-1994</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hama</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Khlef</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01-01-1987</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hama</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
